--- a/biology/Botanique/Chronologie_de_la_botanique/Chronologie_de_la_botanique.xlsx
+++ b/biology/Botanique/Chronologie_de_la_botanique/Chronologie_de_la_botanique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -481,6 +491,8 @@
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -506,7 +518,9 @@
           <t>Antiquité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>vers 372 av. J.-C.–vers 287 av. J.-C. : Théophraste définit la botanique comme une discipline à part entière, possédant ses propres méthode et vocabulaire.
 vers 40 apr. J.-C.-vers 90 : Dioscoride fait paraître vers 60 De materia medica, un ouvrage sur les produits médicinaux et qui décrit un peu moins d'un millier de plantes. Il restera en usage au moins jusqu'au XVIe siècle.</t>
@@ -537,7 +551,9 @@
           <t>Moyen Âge</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Abu Muhammad Ibn al-Baitar né vers 1197 dans la province de Malaga et mort en 1248 à Damas, est un médecin arabo-andalou. Il étudie les propriétés médicinales des plantes et fait de nombreux voyages de recherches avec ses élèves.
 Vincent de Beauvais (v. 1190-1264) fait paraître une importante compilation des connaissances de son temps. Plus critique et fin que Thomas de Cantimpré (1201-1263) à la même époque, il préfigure les encyclopédistes de la Renaissance. Il fut surnommé le Pline du Moyen Âge.
@@ -569,7 +585,9 @@
           <t>Renaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1485 : parution en Allemagne de Gart der Gesundheit de Johannes de Cuba, premier livre imprimé d'histoire naturelle. Sa partie botanique sera souvent réimprimée au cours des décennies suivantes.
 vers 1520-1530 : Luca Ghini invente l'herbier.
@@ -608,7 +626,9 @@
           <t>XVIIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1601 : parution de Rariorum plantarum historia de Charles de l'Écluse (1525-1629) qui regroupe ses ouvrages précédents. Sa classification n'est pas très évoluée mais ses descriptions sont excellentes.
 1605 : Claude Duret (v. 1570-1611) fait paraître Histoire admirable des plantes et herbes esmerveillables et miraculeuses en nature... (Paris, 1605) où il décrit des plantes étranges pour un arbre dont les feuilles s'enfuient sur de petites pattes lorsqu'elles touchent terre.
@@ -648,7 +668,9 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>1705 : mort de John Ray, fondateur de la botanique moderne.
 1718 : le Jardin du roi devient un véritable établissement d'étude des végétaux et non plus seulement des espèces à valeurs médicales.
@@ -691,7 +713,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1804 : Dans un ouvrage intitulé Recherches chimiques sur la végétation, Nicolas Théodore de Saussure publie les résultats de ses expériences sur les plantes qui fondent les bases chimiques de la physiologie végétale.
 1805 : Essai sur la géographie des plantes par Alexander von Humboldt et Aimé Bonpland.
@@ -740,7 +764,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1908 : Ludwig Diels publie Pflanzengeographie.
 1922 : Le terme « géobotanique » est créé par E. Rübel (1876-1960) dans son ouvrage Geobotanische Untersuchungsmethoden.
@@ -774,7 +800,9 @@
           <t>Botanique du XXIe siècle et du futur</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles stratégies de travail et de formation sont permises par l'interaction entre de nouveaux outils tels que :
 SIG et outils de cartographie automatique (à partir d'imagerie satellitaire, aérienne, au sol, etc. ;
@@ -783,9 +811,9 @@
 moteurs de recherche, d'indexation, de navigation de plus en plus « intelligents » ;
 logiciels d'aide au travail collaboratif (wikis notamment) ;
 licences libres ou collaboratives de type creative commons...
-Le croisement entre ces outils grâce à des procédures et logiciels dits d'interopérabilité, ouvre un large et nouveau champ à une botanique parfois dite « botanique numérique[1] » alors que les botanistes universitaires ont été au XXe siècle de moins en moins nombreux à être formés, mais de plus en plus sollicités pour répondre aux enjeux, urgences et incertitudes liés à la fonte accélérée de la biodiversité et aux dérèglements climatiques.
+Le croisement entre ces outils grâce à des procédures et logiciels dits d'interopérabilité, ouvre un large et nouveau champ à une botanique parfois dite « botanique numérique » alors que les botanistes universitaires ont été au XXe siècle de moins en moins nombreux à être formés, mais de plus en plus sollicités pour répondre aux enjeux, urgences et incertitudes liés à la fonte accélérée de la biodiversité et aux dérèglements climatiques.
 Les technologies de communication sans fil (dont la téléphonie portable), associées au GPS et à d'autres matériels informatiques fixes et "nomades" devraient en effet rapidement permettre l'identification botanique assistée par ordinateur, y compris sur le terrain, grâce notamment à des logiciels experts améliorant des moteurs de recherche par « identification visuelle ». Inversement, les identifications de terrains devraient pouvoir enrichir les bases de données générales.
-Des expériences comme Tela Botanica ont déjà montré l'intérêt d'associer des réseaux d'amateurs et des communautés de spécialistes, ainsi que d'améliorer l'accès aux données. Il existe en France un projet de plateforme botanique collaborative « Pl@ntNet » [2]. 
+Des expériences comme Tela Botanica ont déjà montré l'intérêt d'associer des réseaux d'amateurs et des communautés de spécialistes, ainsi que d'améliorer l'accès aux données. Il existe en France un projet de plateforme botanique collaborative « Pl@ntNet » . 
 La botanique "numérique" pourrait ainsi contribuer à :
 mieux lutter (là où il faut et quand il faut, voire de manière automatique et robotisée) contre les adventices des cultures.
 améliorer la Bioévaluation (évaluation de la patrimonialité écologique en particulier, importante pour les études d'impacts et délivrances de dérogation en échange d'une compensation forte et efficace). ;
@@ -796,7 +824,7 @@
 et plus généralement contribuer à un monitoring plus proche du "temps réel" de la biodiversité ;
 amélioration de la modélisation appliquée au règne végétal. Les simulations d'évolution d'un paysage sont une des applications possibles (La simulation de l'architecture des végétaux a pu évoluer vers la prédiction de l'évolution des peuplements).
 meilleur accès aux données via des portails internet plus conviviaux et ergonomiques pour les non-spécialistes, comme pour les experts.
-De nouvelles clés d'identification dichotomiques, graphiques[3], visuelles, et textuelles simplifiées de détermination, gestion des bases de données numériques ou numérisées de photos de flores, de banques de graines flores anciennes numérisées et corrigées et mises à jour, ainsi que des logiciels simulant l'évolution de la flore selon les conditions du milieu, ou permettant d'évaluer la bioconcentration ou la circulation de certains polluants dans la chaîne alimentaire, etc. sont quelques exemples de ce que devrait permettre la botanique dans un futur proche. 
+De nouvelles clés d'identification dichotomiques, graphiques, visuelles, et textuelles simplifiées de détermination, gestion des bases de données numériques ou numérisées de photos de flores, de banques de graines flores anciennes numérisées et corrigées et mises à jour, ainsi que des logiciels simulant l'évolution de la flore selon les conditions du milieu, ou permettant d'évaluer la bioconcentration ou la circulation de certains polluants dans la chaîne alimentaire, etc. sont quelques exemples de ce que devrait permettre la botanique dans un futur proche. 
 Les ordinateurs et banques de données mises en réseau ainsi qu'un travail plus collaboratif devraient doper la recherche, mais aussi permettre l'accès de la botanique à un plus grand nombre d'amateurs et au grand public. Une des conditions pour ceci est d'améliorer l'interopérabilité des bases de données et logiciels (objectif qui est en France coordonné par le réseau SINP qui peut s'appuyer sur de nouvelles bases de données nomenclaturales, et des projets en cours de développement tels que baseflor, baseveg, CATMINAT, ainsi que les bases de données phytosociologiques de Tela Botanica. 
 Ces améliorations devraient aussi avoir des répercussions dans le droit de l'environnement où il faudra de plus en plus mettre à jour les listes d'espèces protégées et menacées, la botanique évoluant, ce qui implique de devoir référencer différemment des espèces renommées ou sous-divisées ou regroupées en nouveaux taxons. La botanique numérique devrait aussi améliorer la formation des scientifiques, le travail des bureaux d'étude et la lutte contre le trafic de bois ou d'espèces végétales menacées ou protégées (par les douanes et la gendarmerie par exemple, dans le cadre de la CITES). Des outils « multi-entrée », s'appuyant par exemple sur des « typologies par portraits-robot » et un choix filtré par les potentialités du site concerné et référencé.
 </t>
